--- a/data/trans_orig/P43E-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Dificultad-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>119972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100212</v>
+        <v>99705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139757</v>
+        <v>139664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1662655791909442</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1388812141840274</v>
+        <v>0.1381777672253828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1936855329596383</v>
+        <v>0.1935568372585261</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>601595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>581810</v>
+        <v>581903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>621355</v>
+        <v>621862</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8337344208090558</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8063144670403616</v>
+        <v>0.8064431627414738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8611187858159723</v>
+        <v>0.8618222327746171</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>155290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135514</v>
+        <v>133787</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>178171</v>
+        <v>179752</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2227936398337362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1944211341786433</v>
+        <v>0.1919439123961198</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2556213244154244</v>
+        <v>0.2578895166443955</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>541723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>518842</v>
+        <v>517261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>561499</v>
+        <v>563226</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7772063601662639</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7443786755845756</v>
+        <v>0.7421104833556044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8055788658213567</v>
+        <v>0.8080560876038801</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>128385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108377</v>
+        <v>109115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150464</v>
+        <v>150192</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2469390271696992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2084541169328475</v>
+        <v>0.2098746965594055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2894053885461175</v>
+        <v>0.2888815040576574</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>391522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>369443</v>
+        <v>369715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>411530</v>
+        <v>410792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7530609728303008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7105946114538825</v>
+        <v>0.711118495942343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7915458830671526</v>
+        <v>0.7901253034405945</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>112618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95138</v>
+        <v>95345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129906</v>
+        <v>132080</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3755753399174372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3172788790404966</v>
+        <v>0.3179718836012468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4332302189115109</v>
+        <v>0.4404780049434054</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>187237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>169949</v>
+        <v>167775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>204717</v>
+        <v>204510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6244246600825628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5667697810884889</v>
+        <v>0.5595219950565946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6827211209595031</v>
+        <v>0.6820281163987532</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>516265</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>476436</v>
+        <v>479246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>557299</v>
+        <v>560226</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2306462831667311</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2128523027781271</v>
+        <v>0.2141074851906538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2489784492557926</v>
+        <v>0.2502860489756654</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>1722077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1681043</v>
+        <v>1678116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1761906</v>
+        <v>1759096</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7693537168332689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7510215507442074</v>
+        <v>0.7497139510243346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7871476972218729</v>
+        <v>0.7858925148093462</v>
       </c>
     </row>
     <row r="18">
@@ -1196,19 +1196,19 @@
         <v>56911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43717</v>
+        <v>44533</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72030</v>
+        <v>72930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0779597102574812</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05988573261870954</v>
+        <v>0.06100337856822799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09867054263128371</v>
+        <v>0.09990265396367486</v>
       </c>
     </row>
     <row r="5">
@@ -1225,19 +1225,19 @@
         <v>673099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657980</v>
+        <v>657080</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>686293</v>
+        <v>685477</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9220402897425188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9013294573687169</v>
+        <v>0.9000973460363251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9401142673812906</v>
+        <v>0.938996621431772</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>96431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77731</v>
+        <v>80191</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115889</v>
+        <v>116272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1568433763175137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1264290575558977</v>
+        <v>0.1304291804384883</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.188491337366608</v>
+        <v>0.1891147143777798</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>518392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>498934</v>
+        <v>498551</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>537092</v>
+        <v>534632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8431566236824862</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8115086626333919</v>
+        <v>0.8108852856222201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8735709424441024</v>
+        <v>0.8695708195615116</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>94946</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78382</v>
+        <v>76977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>113643</v>
+        <v>113368</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.206609781081159</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1705662737033884</v>
+        <v>0.1675087688726607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2472974059842813</v>
+        <v>0.2466986993271617</v>
       </c>
     </row>
     <row r="11">
@@ -1407,19 +1407,19 @@
         <v>364595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>345898</v>
+        <v>346173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>381159</v>
+        <v>382564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7933902189188411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7527025940157189</v>
+        <v>0.7533013006728385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8294337262966116</v>
+        <v>0.8324912311273394</v>
       </c>
     </row>
     <row r="12">
@@ -1469,19 +1469,19 @@
         <v>102602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85302</v>
+        <v>86516</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120923</v>
+        <v>120023</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3039360740976902</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2526895093683362</v>
+        <v>0.2562839082115759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3582093749651689</v>
+        <v>0.355541559132444</v>
       </c>
     </row>
     <row r="14">
@@ -1498,19 +1498,19 @@
         <v>234975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216654</v>
+        <v>217554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>252275</v>
+        <v>251061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6960639259023098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6417906250348311</v>
+        <v>0.644458440867556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7473104906316638</v>
+        <v>0.7437160917884241</v>
       </c>
     </row>
     <row r="15">
@@ -1560,19 +1560,19 @@
         <v>350890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>316217</v>
+        <v>318795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>390966</v>
+        <v>388531</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.163817807083541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1476305249933343</v>
+        <v>0.1488340626833029</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1825279984357688</v>
+        <v>0.1813912463594907</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>1791060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1750984</v>
+        <v>1753419</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1825733</v>
+        <v>1823155</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8361821929164589</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8174720015642312</v>
+        <v>0.8186087536405092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8523694750066657</v>
+        <v>0.8511659373166971</v>
       </c>
     </row>
     <row r="18">
@@ -1769,19 +1769,19 @@
         <v>31696</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23794</v>
+        <v>23296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42567</v>
+        <v>43252</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.129745570812303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09739940254096953</v>
+        <v>0.09535959298904055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1742471121504797</v>
+        <v>0.1770504602516777</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>212597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201726</v>
+        <v>201041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220499</v>
+        <v>220997</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.870254429187697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8257528878495204</v>
+        <v>0.8229495397483223</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9026005974590305</v>
+        <v>0.9046404070109594</v>
       </c>
     </row>
     <row r="6">
@@ -1860,19 +1860,19 @@
         <v>68271</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56420</v>
+        <v>55752</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83246</v>
+        <v>82707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1558153986082517</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1287676492631314</v>
+        <v>0.127243989105196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1899921202618199</v>
+        <v>0.1887631636484759</v>
       </c>
     </row>
     <row r="8">
@@ -1889,19 +1889,19 @@
         <v>369883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>354908</v>
+        <v>355447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>381734</v>
+        <v>382402</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8441846013917481</v>
+        <v>0.8441846013917483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8100078797381806</v>
+        <v>0.8112368363515237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8712323507368687</v>
+        <v>0.8727560108948039</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1951,19 @@
         <v>116134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100892</v>
+        <v>101722</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131769</v>
+        <v>134263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2446116346143355</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2125090318088551</v>
+        <v>0.2142571887780637</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2775433391092583</v>
+        <v>0.2827968042109047</v>
       </c>
     </row>
     <row r="11">
@@ -1980,19 +1980,19 @@
         <v>358634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>342999</v>
+        <v>340505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>373876</v>
+        <v>373046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7553883653856646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7224566608907417</v>
+        <v>0.7172031957890952</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7874909681911447</v>
+        <v>0.7857428112219363</v>
       </c>
     </row>
     <row r="12">
@@ -2042,19 +2042,19 @@
         <v>175825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>157559</v>
+        <v>157701</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>193238</v>
+        <v>193144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.405613698906288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3634759438759746</v>
+        <v>0.363802476672825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4457846966743466</v>
+        <v>0.4455669607528085</v>
       </c>
     </row>
     <row r="14">
@@ -2071,19 +2071,19 @@
         <v>257654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240241</v>
+        <v>240335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275920</v>
+        <v>275778</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5943863010937119</v>
+        <v>0.594386301093712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5542153033256534</v>
+        <v>0.5544330392471916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6365240561240253</v>
+        <v>0.6361975233271751</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         <v>391926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>364177</v>
+        <v>361693</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>423563</v>
+        <v>420836</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2463866605723698</v>
+        <v>0.2463866605723697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2289419540908842</v>
+        <v>0.2273802007932212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2662752728346362</v>
+        <v>0.2645609783739207</v>
       </c>
     </row>
     <row r="17">
@@ -2162,19 +2162,19 @@
         <v>1198769</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1167132</v>
+        <v>1169859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1226518</v>
+        <v>1229002</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7536133394276302</v>
+        <v>0.7536133394276301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7337247271653637</v>
+        <v>0.7354390216260793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7710580459091159</v>
+        <v>0.772619799206779</v>
       </c>
     </row>
     <row r="18">
